--- a/output_additional_column/1991.xlsx
+++ b/output_additional_column/1991.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="9">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="13">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="14">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="15">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44703.76710538859</v>
+        <v>44703.79032477488</v>
       </c>
     </row>
   </sheetData>
